--- a/USA_covid.xlsx
+++ b/USA_covid.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Georgia" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -96,6 +96,12 @@
   <si>
     <t>Region N</t>
   </si>
+  <si>
+    <t>FL-8:18PM</t>
+  </si>
+  <si>
+    <t>FL-11:00PM</t>
+  </si>
 </sst>
 </file>
 
@@ -104,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="##,###,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,20 +126,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF112277"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.5"/>
-      <color rgb="FF112277"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,44 +136,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFAFBFE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEDF2F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB0B7BB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB0B7BB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB0B7BB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB0B7BB"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -202,26 +169,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -329,7 +284,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$9</c:f>
+              <c:f>Sheet1!$M$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -352,7 +307,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$10:$K$71</c:f>
+              <c:f>Sheet1!$L$10:$L$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="62"/>
@@ -547,7 +502,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$10:$L$71</c:f>
+              <c:f>Sheet1!$M$10:$M$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -723,7 +678,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$9</c:f>
+              <c:f>Sheet1!$N$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -791,7 +746,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$10:$K$71</c:f>
+              <c:f>Sheet1!$L$10:$L$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="62"/>
@@ -986,7 +941,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$10:$M$71</c:f>
+              <c:f>Sheet1!$N$10:$N$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -1162,7 +1117,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$9</c:f>
+              <c:f>Sheet1!$O$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1230,7 +1185,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$K$10:$K$71</c:f>
+              <c:f>Sheet1!$L$10:$L$71</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="62"/>
@@ -1425,7 +1380,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$10:$N$71</c:f>
+              <c:f>Sheet1!$O$10:$O$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -2370,7 +2325,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2667,19 +2622,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="22" max="22" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2687,7 +2641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2695,7 +2649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2703,7 +2657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2714,7 +2668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2725,7 +2679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2733,24 +2687,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>11</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2763,44 +2717,44 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>5</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>7</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>5</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>6</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>7</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>5</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>6</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44012</v>
       </c>
@@ -2814,33 +2768,33 @@
       <c r="D10">
         <v>2876</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>43952</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>14844</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>9647</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1500</v>
       </c>
-      <c r="P10" s="2">
+      <c r="Q10" s="2">
         <v>44012</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>57227</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f>57227-12894</f>
         <v>44333</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>6904</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44013</v>
       </c>
@@ -2854,841 +2808,865 @@
       <c r="D11">
         <v>2938</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2">
         <v>44013</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>59722</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>46989</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>43953</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>1440</v>
       </c>
-      <c r="P11" s="2">
+      <c r="Q11" s="2">
         <v>44013</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K12" s="2">
+      <c r="R11">
+        <v>57670</v>
+      </c>
+      <c r="S11">
+        <f>R11-11983</f>
+        <v>45687</v>
+      </c>
+      <c r="T11">
+        <v>7382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>44014</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2">
+        <v>44014</v>
+      </c>
+      <c r="H12">
+        <v>59044</v>
+      </c>
+      <c r="I12">
+        <v>46996</v>
+      </c>
+      <c r="L12" s="2">
         <v>43954</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1410</v>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K13" s="2">
+      <c r="Q12" s="2">
+        <v>44014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L13" s="2">
         <v>43955</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>1377</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K14" s="2">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L14" s="2">
         <v>43956</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1343</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K15" s="2">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L15" s="2">
         <v>43957</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1339</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K16" s="2">
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L16" s="2">
         <v>43958</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1309</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K17" s="2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="2">
         <v>43959</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>15137</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>10259</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1227</v>
       </c>
-      <c r="O17" s="7"/>
-      <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K18" s="2">
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="2">
         <v>43960</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1179</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K19" s="2">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="2">
         <v>43961</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>1144</v>
       </c>
     </row>
-    <row r="20" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K20" s="2">
+    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="2">
         <v>43962</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>15085</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>9403</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1133</v>
       </c>
     </row>
-    <row r="21" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K21" s="2">
+    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L21" s="2">
         <v>43963</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>15133</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>10016</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>1125</v>
       </c>
     </row>
-    <row r="22" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K22" s="2">
+    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L22" s="2">
         <v>43964</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>15129</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>10339</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1091</v>
       </c>
     </row>
-    <row r="23" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K23" s="2">
+    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L23" s="2">
         <v>43965</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>15129</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>10482</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1060</v>
       </c>
     </row>
-    <row r="24" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K24" s="2">
+    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L24" s="2">
         <v>43966</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>15146</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>10492</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1029</v>
       </c>
     </row>
-    <row r="25" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K25" s="2">
+    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L25" s="2">
         <v>43967</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>15095</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>10000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1005</v>
       </c>
     </row>
-    <row r="26" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K26" s="2">
+    <row r="26" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L26" s="2">
         <v>43968</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>15193</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>9618</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1010</v>
       </c>
     </row>
-    <row r="27" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K27" s="2">
+    <row r="27" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L27" s="2">
         <v>43969</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>15200</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>9749</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1025</v>
       </c>
     </row>
-    <row r="28" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K28" s="2">
+    <row r="28" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L28" s="2">
         <v>43970</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>15204</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>10386</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>986</v>
       </c>
     </row>
-    <row r="29" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K29" s="2">
+    <row r="29" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="2">
         <v>43971</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>15211</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>10726</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>959</v>
       </c>
     </row>
-    <row r="30" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K30" s="2">
+    <row r="30" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L30" s="2">
         <v>43972</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>15177</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>10569</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>919</v>
       </c>
     </row>
-    <row r="31" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K31" s="2">
+    <row r="31" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L31" s="2">
         <v>43973</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>15123</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>10420</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>889</v>
       </c>
     </row>
-    <row r="32" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K32" s="2">
+    <row r="32" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L32" s="2">
         <v>43974</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>15096</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>9858</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>848</v>
       </c>
     </row>
-    <row r="33" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K33" s="2">
+    <row r="33" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L33" s="2">
         <v>43975</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>15137</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>9685</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>848</v>
       </c>
     </row>
-    <row r="34" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K34" s="2">
+    <row r="34" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L34" s="2">
         <v>43976</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>15156</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>9766</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>892</v>
       </c>
     </row>
-    <row r="35" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K35" s="2">
+    <row r="35" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L35" s="2">
         <v>43977</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>15170</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>9956</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>854</v>
       </c>
     </row>
-    <row r="36" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K36" s="2">
+    <row r="36" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L36" s="2">
         <v>43978</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>15150</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>10842</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>907</v>
       </c>
     </row>
-    <row r="37" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K37" s="2">
+    <row r="37" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L37" s="2">
         <v>43979</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>15111</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>10949</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>902</v>
       </c>
     </row>
-    <row r="38" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K38" s="2">
+    <row r="38" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L38" s="2">
         <v>43980</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>15144</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>11036</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>891</v>
       </c>
     </row>
-    <row r="39" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K39" s="2">
+    <row r="39" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L39" s="2">
         <v>43981</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>15191</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>10599</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>850</v>
       </c>
     </row>
-    <row r="40" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K40" s="2">
+    <row r="40" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L40" s="2">
         <v>43982</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>15143</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>10077</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>853</v>
       </c>
     </row>
-    <row r="41" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K41" s="2">
+    <row r="41" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L41" s="2">
         <v>43983</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>15184</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>10160</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>841</v>
       </c>
     </row>
-    <row r="42" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K42" s="2">
+    <row r="42" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L42" s="2">
         <v>43984</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>15135</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>10626</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>828</v>
       </c>
     </row>
-    <row r="43" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K43" s="2">
+    <row r="43" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L43" s="2">
         <v>43985</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>15177</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>11166</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>815</v>
       </c>
     </row>
-    <row r="44" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K44" s="2">
+    <row r="44" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L44" s="2">
         <v>43986</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>15192</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>11141</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>807</v>
       </c>
     </row>
-    <row r="45" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K45" s="2">
+    <row r="45" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L45" s="2">
         <v>43987</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>15194</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>11132</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>790</v>
       </c>
     </row>
-    <row r="46" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K46" s="2">
+    <row r="46" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L46" s="2">
         <v>43988</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>15175</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>10076</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>788</v>
       </c>
     </row>
-    <row r="47" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K47" s="2">
+    <row r="47" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L47" s="2">
         <v>43989</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>15150</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>10338</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>783</v>
       </c>
     </row>
-    <row r="48" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K48" s="2">
+    <row r="48" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L48" s="2">
         <v>43990</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>15158</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>10406</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>819</v>
       </c>
     </row>
-    <row r="49" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K49" s="2">
+    <row r="49" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L49" s="2">
         <v>43991</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>15186</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>11172</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>834</v>
       </c>
     </row>
-    <row r="50" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K50" s="2">
+    <row r="50" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L50" s="2">
         <v>43992</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>15222</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>11494</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>817</v>
       </c>
     </row>
-    <row r="51" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K51" s="2">
+    <row r="51" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L51" s="2">
         <v>43993</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>15205</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>11633</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>842</v>
       </c>
     </row>
-    <row r="52" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K52" s="2">
+    <row r="52" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L52" s="2">
         <v>43994</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>15299</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>11420</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>836</v>
       </c>
     </row>
-    <row r="53" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K53" s="2">
+    <row r="53" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L53" s="2">
         <v>43995</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>15256</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>10749</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>810</v>
       </c>
     </row>
-    <row r="54" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K54" s="2">
+    <row r="54" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L54" s="2">
         <v>43996</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>15203</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>10430</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>829</v>
       </c>
     </row>
-    <row r="55" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K55" s="2">
+    <row r="55" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L55" s="2">
         <v>43997</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>15195</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>10520</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>865</v>
       </c>
     </row>
-    <row r="56" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K56" s="2">
+    <row r="56" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L56" s="2">
         <v>43998</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>15175</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>11350</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>875</v>
       </c>
     </row>
-    <row r="57" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K57" s="2">
+    <row r="57" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L57" s="2">
         <v>43999</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>15101</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>11570</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>881</v>
       </c>
     </row>
-    <row r="58" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K58" s="2">
+    <row r="58" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L58" s="2">
         <v>44000</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>15084</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>11584</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>921</v>
       </c>
     </row>
-    <row r="59" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K59" s="2">
+    <row r="59" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L59" s="2">
         <v>44001</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>15148</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>11409</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>937</v>
       </c>
     </row>
-    <row r="60" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K60" s="2">
+    <row r="60" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L60" s="2">
         <v>44002</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>15142</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>10936</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>944</v>
       </c>
     </row>
-    <row r="61" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K61" s="2">
+    <row r="61" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L61" s="2">
         <v>44003</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>15122</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>10592</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>960</v>
       </c>
     </row>
-    <row r="62" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K62" s="2">
+    <row r="62" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L62" s="2">
         <v>44004</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>15149</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>10569</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K63" s="2">
+    <row r="63" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L63" s="2">
         <v>44005</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>15122</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>11394</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>1056</v>
       </c>
     </row>
-    <row r="64" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K64" s="2">
+    <row r="64" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L64" s="2">
         <v>44006</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>15154</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>11676</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>1124</v>
       </c>
     </row>
-    <row r="65" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K65" s="2">
+    <row r="65" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L65" s="2">
         <v>44007</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>15167</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>11650</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>1135</v>
       </c>
     </row>
-    <row r="66" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K66" s="2">
+    <row r="66" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L66" s="2">
         <v>44008</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>15160</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>11686</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>1184</v>
       </c>
     </row>
-    <row r="67" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K67" s="2">
+    <row r="67" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L67" s="2">
         <v>44009</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>15140</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>11267</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>1178</v>
       </c>
     </row>
-    <row r="68" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K68" s="2">
+    <row r="68" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L68" s="2">
         <v>44010</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>15133</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>10838</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>1236</v>
       </c>
     </row>
-    <row r="69" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K69" s="2">
+    <row r="69" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L69" s="2">
         <v>44011</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>15148</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>10873</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>1359</v>
       </c>
     </row>
-    <row r="70" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K70" s="2">
+    <row r="70" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L70" s="2">
         <v>44012</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>15136</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>11556</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>1459</v>
       </c>
     </row>
-    <row r="71" spans="11:14" x14ac:dyDescent="0.25">
-      <c r="K71" s="2">
+    <row r="71" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L71" s="2">
         <v>44013</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>15134</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>11764</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>1570</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="O12:P12"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B1" r:id="rId2"/>
@@ -3705,7 +3683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3789,8 +3767,8 @@
       <c r="D8">
         <v>1339</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -3799,7 +3777,7 @@
       <c r="D9">
         <v>1309</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -4643,7 +4621,7 @@
       <c r="B78">
         <v>622</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="5">
         <v>1004</v>
       </c>
     </row>
@@ -4832,7 +4810,7 @@
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="9">
+      <c r="A138" s="5">
         <v>1127</v>
       </c>
     </row>
